--- a/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
+++ b/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\Protocol Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884BBAA-36C7-4D42-B0F6-497F6EB736FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A452E55-03B3-4F4B-843E-CB9B4F018D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nome trt</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>YAX3AWSLIB</t>
+  </si>
+  <si>
+    <t>YAX3MAUTHLIB</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>YAX3MUSRLIB</t>
+  </si>
+  <si>
+    <t>YAX3MLOG</t>
   </si>
 </sst>
 </file>
@@ -447,83 +459,91 @@
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="2"/>
     </row>

--- a/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
+++ b/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\Protocol Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A452E55-03B3-4F4B-843E-CB9B4F018D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9BD36-0473-4B90-81F5-20E8E1FD7830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nome trt</t>
   </si>
@@ -61,14 +61,37 @@
   </si>
   <si>
     <t>YAX3MLOG</t>
+  </si>
+  <si>
+    <t>YAX3MPROTOCOLLIB</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>MANCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -93,44 +116,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -146,20 +132,46 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -170,12 +182,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -456,96 +474,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
+++ b/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\Protocol Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA9BD36-0473-4B90-81F5-20E8E1FD7830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1DD92-36BB-4796-80CE-C898D64CE727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome trt</t>
   </si>
@@ -48,9 +48,6 @@
     <t>YUTILS</t>
   </si>
   <si>
-    <t>YAX3AWSLIB</t>
-  </si>
-  <si>
     <t>YAX3MAUTHLIB</t>
   </si>
   <si>
@@ -75,7 +72,7 @@
     <t>Patch</t>
   </si>
   <si>
-    <t>MANCA</t>
+    <t>SPEYAX3M</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,11 +173,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -193,6 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +492,7 @@
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -493,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,26 +588,10 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
+++ b/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\Protocol Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1DD92-36BB-4796-80CE-C898D64CE727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F15735-60CA-49BB-BA6A-23F78BAC9C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27105" yWindow="1410" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nome trt</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>SPEYAX3M</t>
+  </si>
+  <si>
+    <t>Servizi per  protocollo funzione</t>
+  </si>
+  <si>
+    <t>Trt per funzione di Config(QR Codes)</t>
+  </si>
+  <si>
+    <t>Libreri per LOG</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -199,8 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -484,7 +492,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,21 +585,27 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
+++ b/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\Protocol Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F15735-60CA-49BB-BA6A-23F78BAC9C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E83C7-F55E-4DD1-AA65-3AD46E185738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27105" yWindow="1410" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Nome trt</t>
   </si>
@@ -81,7 +81,37 @@
     <t>Trt per funzione di Config(QR Codes)</t>
   </si>
   <si>
-    <t>Libreri per LOG</t>
+    <t>Libreria di utilità generale</t>
+  </si>
+  <si>
+    <t>Libreria per gestione AX3M</t>
+  </si>
+  <si>
+    <t>Libreria per de - serializzazione json</t>
+  </si>
+  <si>
+    <t>Libreria per serializzazione json</t>
+  </si>
+  <si>
+    <t>Libreria per gestione selezioni(custom,multicustom/ad oggetto)</t>
+  </si>
+  <si>
+    <t>Gestione servizi REST</t>
+  </si>
+  <si>
+    <t>Libreria per LOG</t>
+  </si>
+  <si>
+    <t>Trt specifico per gestione Backend utenti</t>
+  </si>
+  <si>
+    <t>Libreria  associata alla gestione utenti Ax3m</t>
+  </si>
+  <si>
+    <t>YAX3MENULIB</t>
+  </si>
+  <si>
+    <t>Gestione  Menù AX3M in base a profili funzione</t>
   </si>
 </sst>
 </file>
@@ -105,15 +135,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,10 +178,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -158,57 +207,34 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -489,96 +515,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -600,12 +642,37 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
+++ b/script/Protocol Core Trt/Protocol_Core_ trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\Protocol Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E83C7-F55E-4DD1-AA65-3AD46E185738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243F8FF-8AA9-4B4A-A897-DF6D44BC7DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nome trt</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Gestione  Menù AX3M in base a profili funzione</t>
+  </si>
+  <si>
+    <t>Libreria per la gestione dell'Autenticazione</t>
   </si>
 </sst>
 </file>
@@ -135,18 +138,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -222,19 +219,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -518,7 +514,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,16 +527,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -602,7 +598,9 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +649,7 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
